--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26314,13 +26316,13 @@
         <v>37134.75141293493</v>
       </c>
       <c r="C2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="D2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="E2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="F2" t="n">
         <v>37134.75141293493</v>
@@ -26329,31 +26331,31 @@
         <v>37134.75141293492</v>
       </c>
       <c r="H2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="I2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="J2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293492</v>
       </c>
       <c r="K2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="L2" t="n">
+        <v>37134.75141293491</v>
+      </c>
+      <c r="M2" t="n">
+        <v>37134.75141293494</v>
+      </c>
+      <c r="N2" t="n">
         <v>37134.75141293493</v>
-      </c>
-      <c r="M2" t="n">
-        <v>37134.75141293493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37134.75141293494</v>
       </c>
       <c r="O2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="P2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
     </row>
     <row r="3">
@@ -26522,13 +26524,13 @@
         <v>-1797.8130746272</v>
       </c>
       <c r="C6" t="n">
-        <v>-1797.813074627207</v>
+        <v>-1797.8130746272</v>
       </c>
       <c r="D6" t="n">
-        <v>-1797.813074627207</v>
+        <v>-1797.8130746272</v>
       </c>
       <c r="E6" t="n">
-        <v>31829.78692537279</v>
+        <v>31829.7869253728</v>
       </c>
       <c r="F6" t="n">
         <v>31829.7869253728</v>
@@ -26537,31 +26539,31 @@
         <v>31829.78692537279</v>
       </c>
       <c r="H6" t="n">
-        <v>31829.7869253728</v>
+        <v>31829.78692537281</v>
       </c>
       <c r="I6" t="n">
         <v>31829.7869253728</v>
       </c>
       <c r="J6" t="n">
-        <v>31829.7869253728</v>
+        <v>31829.78692537279</v>
       </c>
       <c r="K6" t="n">
         <v>31829.7869253728</v>
       </c>
       <c r="L6" t="n">
+        <v>31829.78692537278</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31829.78692537281</v>
+      </c>
+      <c r="N6" t="n">
         <v>31829.7869253728</v>
-      </c>
-      <c r="M6" t="n">
-        <v>31829.7869253728</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31829.78692537281</v>
       </c>
       <c r="O6" t="n">
         <v>31829.7869253728</v>
       </c>
       <c r="P6" t="n">
-        <v>31829.78692537279</v>
+        <v>31829.7869253728</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174320.3286123407</v>
+        <v>48460.0757744857</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293492</v>
       </c>
       <c r="C2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="D2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293492</v>
       </c>
       <c r="E2" t="n">
         <v>37134.75141293493</v>
@@ -26331,22 +26331,22 @@
         <v>37134.75141293492</v>
       </c>
       <c r="H2" t="n">
-        <v>37134.75141293494</v>
+        <v>37134.75141293492</v>
       </c>
       <c r="I2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="J2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="K2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="L2" t="n">
-        <v>37134.75141293491</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="M2" t="n">
-        <v>37134.75141293494</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="N2" t="n">
         <v>37134.75141293493</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1797.8130746272</v>
+        <v>-16840.83380243849</v>
       </c>
       <c r="C6" t="n">
-        <v>-1797.8130746272</v>
+        <v>-16840.83380243848</v>
       </c>
       <c r="D6" t="n">
-        <v>-1797.8130746272</v>
+        <v>-16840.83380243849</v>
       </c>
       <c r="E6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="F6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="G6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="H6" t="n">
-        <v>31829.78692537281</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="I6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="J6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="K6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="L6" t="n">
-        <v>31829.78692537278</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="M6" t="n">
-        <v>31829.78692537281</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="N6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="O6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="P6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
     </row>
   </sheetData>
